--- a/target/classes/fzj_1.xlsx
+++ b/target/classes/fzj_1.xlsx
@@ -81,14 +81,14 @@
     <t>permission-server</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.permission.controller.UserRoleMappingController.delete(java.lang.Long,java.lang.Long)</t>
+    <t>com.clsaa.dop.server.permission.controller.RolePermissionMappingController.delete(java.lang.Long,java.lang.Long)</t>
   </si>
   <si>
     <t>java.lang.Long
 java.lang.Long</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.permission.controller.UserRoleMappingController.addRoleToUser(java.lang.Long,java.lang.Long,java.lang.Long)</t>
+    <t>com.clsaa.dop.server.permission.controller.RolePermissionMappingController.addPermissionToRole(java.lang.Long,java.lang.Long,java.lang.Long)</t>
   </si>
   <si>
     <t>java.lang.Long
@@ -140,6 +140,59 @@
     <t>com.clsaa.dop.server.permission.controller.RoleController.findAllRole(java.lang.Long)</t>
   </si>
   <si>
+    <t>com.clsaa.dop.server.permission.controller.UserRoleMappingController.delete(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.permission.controller.UserRoleMappingController.addRoleToUser(java.lang.Long,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.permission.controller.PermissionController.findByUserId(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.permission.controller.PermissionController.findAllIdOf2()</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.permission.controller.PermissionController.findByCurrentUserId(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.permission.controller.PermissionController.checkUserPermission(java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>java.lang.String
+java.lang.Long</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.permission.controller.PermissionController.findById(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.permission.model.vo.PermissionV1</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.permission.controller.PermissionController.deleteById(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.permission.controller.PermissionController.getPermissionV1Pagination(java.lang.Integer,java.lang.Integer,java.lang.Long,java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.permission.controller.PermissionController.findByName(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.permission.controller.PermissionController.findByRoleId(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.permission.controller.PermissionController.createPermission(java.lang.Long,java.lang.String,java.lang.Integer,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>java.lang.Long
+java.lang.String
+java.lang.Integer
+java.lang.String
+java.lang.Long</t>
+  </si>
+  <si>
     <t>com.clsaa.dop.server.permission.controller.UserDataController.deleteByFieldAndUserId(java.lang.Long,java.lang.String,java.lang.Long)</t>
   </si>
   <si>
@@ -224,59 +277,6 @@
     <t>com.clsaa.dop.server.permission.model.vo.UserRuleV1</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.permission.controller.RolePermissionMappingController.delete(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.RolePermissionMappingController.addPermissionToRole(java.lang.Long,java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.findByUserId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.findAllIdOf2()</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.findByCurrentUserId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.checkUserPermission(java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.findById(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.model.vo.PermissionV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.deleteById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.getPermissionV1Pagination(java.lang.Integer,java.lang.Integer,java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.findByName(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.findByRoleId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.createPermission(java.lang.Long,java.lang.String,java.lang.Integer,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.String
-java.lang.Integer
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
     <t>gateway-server</t>
   </si>
   <si>
@@ -302,6 +302,36 @@
   </si>
   <si>
     <t>user-server</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.user.controller.UserCredentialController.addUserCredential(java.lang.Long,java.lang.String,java.lang.String,com.clsaa.dop.server.user.model.po.UserCredential$Type)</t>
+  </si>
+  <si>
+    <t>java.lang.Long
+java.lang.String
+java.lang.String
+com.clsaa.dop.server.user.model.po.UserCredential$Type</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.user.controller.UserCredentialController.deleteUserCredential(java.lang.Long,com.clsaa.dop.server.user.model.po.UserCredential$Type)</t>
+  </si>
+  <si>
+    <t>java.lang.Long
+com.clsaa.dop.server.user.model.po.UserCredential$Type</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.user.controller.UserCredentialController.updateUserCredential(java.lang.Long,java.lang.String,com.clsaa.dop.server.user.model.po.UserCredential$Type)</t>
+  </si>
+  <si>
+    <t>java.lang.Long
+java.lang.String
+com.clsaa.dop.server.user.model.po.UserCredential$Type</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.user.controller.UserCredentialController.getUserCredentialV1ByUserId(java.lang.Long,com.clsaa.dop.server.user.model.po.UserCredential$Type)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.user.model.vo.UserCredentialV1</t>
   </si>
   <si>
     <t>com.clsaa.dop.server.user.controller.UserController.findUserByEmailAndPassword(java.lang.String,java.lang.String)</t>
@@ -350,6 +380,30 @@
     <t>com.clsaa.dop.server.user.model.dto.RegisterDtoV1</t>
   </si>
   <si>
+    <t>com.clsaa.dop.server.user.controller.OrgUserMappingController.addUserToOrganization(java.lang.Long,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.user.controller.OrgUserMappingController.deleteUserFromOrganization(java.lang.Long,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.user.controller.OrganizationController.findOrganizationV1ByUser(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.user.controller.OrganizationController.updateOrganizationV1(java.lang.Long,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.user.controller.OrganizationController.deleteOrganizationById(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.user.controller.OrganizationController.findOrganizationV1ById(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.user.model.vo.OrganizationV1</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.user.controller.OrganizationController.addOrganizationV1(java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
     <t>com.clsaa.dop.server.user.testfeign.TestFeign.test()</t>
   </si>
   <si>
@@ -359,60 +413,6 @@
     <t>com.clsaa.dop.server.user.testfeign.TestFeign.test2()</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.user.controller.UserCredentialController.addUserCredential(java.lang.Long,java.lang.String,java.lang.String,com.clsaa.dop.server.user.model.po.UserCredential$Type)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.String
-java.lang.String
-com.clsaa.dop.server.user.model.po.UserCredential$Type</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserCredentialController.deleteUserCredential(java.lang.Long,com.clsaa.dop.server.user.model.po.UserCredential$Type)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-com.clsaa.dop.server.user.model.po.UserCredential$Type</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserCredentialController.updateUserCredential(java.lang.Long,java.lang.String,com.clsaa.dop.server.user.model.po.UserCredential$Type)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.String
-com.clsaa.dop.server.user.model.po.UserCredential$Type</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserCredentialController.getUserCredentialV1ByUserId(java.lang.Long,com.clsaa.dop.server.user.model.po.UserCredential$Type)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.model.vo.UserCredentialV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrganizationController.findOrganizationV1ByUser(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrganizationController.updateOrganizationV1(java.lang.Long,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrganizationController.deleteOrganizationById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrganizationController.findOrganizationV1ById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.model.vo.OrganizationV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrganizationController.addOrganizationV1(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrgUserMappingController.addUserToOrganization(java.lang.Long,java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrgUserMappingController.deleteUserFromOrganization(java.lang.Long,java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
     <t>message-server</t>
   </si>
   <si>
@@ -437,6 +437,33 @@
     <t>pipeline-server</t>
   </si>
   <si>
+    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.build(java.lang.Long,java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.authorization()</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.delete(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.runs(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.create(com.clsaa.dop.server.pipeline.model.po.Pipeline)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.pipeline.model.po.Pipeline</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.status(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.jenkinsfile(com.clsaa.dop.server.pipeline.model.po.Pipeline)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.stages(java.lang.String)</t>
+  </si>
+  <si>
     <t>com.clsaa.dop.server.pipeline.controller.ResultOutputController.create(java.lang.String)</t>
   </si>
   <si>
@@ -450,9 +477,6 @@
   </si>
   <si>
     <t>com.clsaa.dop.server.pipeline.controller.PipelineController.deleteById(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.model.po.Pipeline</t>
   </si>
   <si>
     <t>com.clsaa.dop.server.pipeline.controller.PipelineController.findByIdV1(java.lang.String)</t>
@@ -494,31 +518,62 @@
 java.lang.Long</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.build(java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.authorization()</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.delete(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.runs(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.create(com.clsaa.dop.server.pipeline.model.po.Pipeline)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.status(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.jenkinsfile(com.clsaa.dop.server.pipeline.model.po.Pipeline)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.stages(java.lang.String)</t>
-  </si>
-  <si>
     <t>image-server</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.image.controller.ProjectController.addProject(java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.image.controller.ProjectController.putProject(java.lang.Long,com.clsaa.dop.server.image.model.dto.ProjectDto1,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>java.lang.Long
+com.clsaa.dop.server.image.model.dto.ProjectDto1
+java.lang.Long</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.image.controller.ProjectController.getProjectById(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.image.model.vo.ProjectVO</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.image.controller.ProjectController.getProjects(java.lang.String,java.lang.Boolean,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>java.lang.String
+java.lang.Boolean
+java.lang.String
+java.lang.Integer
+java.lang.Integer
+java.lang.Long</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.image.controller.ProjectController.deleteProject(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.image.controller.ProjectController.updatePublicStatus(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
+    <t>java.lang.Long
+java.lang.Long
+java.lang.String
+java.lang.String</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.image.controller.ProjectLogsController.getProjectLogs(java.lang.Integer,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>java.lang.Integer
+java.lang.String
+java.lang.String
+java.lang.String
+java.lang.String
+java.lang.String
+java.lang.String
+java.lang.Integer
+java.lang.Integer
+java.lang.Long</t>
   </si>
   <si>
     <t>com.clsaa.dop.server.image.controller.ProjectMemberController.deleteMember(java.lang.Integer,java.lang.Long,java.lang.Long)</t>
@@ -557,44 +612,31 @@
 java.lang.Long</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectController.addProject(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectController.putProject(java.lang.Long,com.clsaa.dop.server.image.model.dto.ProjectDto1,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-com.clsaa.dop.server.image.model.dto.ProjectDto1
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectController.getProjectById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.model.vo.ProjectVO</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectController.getProjects(java.lang.String,java.lang.Boolean,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.Long)</t>
+    <t>com.clsaa.dop.server.image.controller.ImageInfoController.getImages(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.Long)</t>
   </si>
   <si>
     <t>java.lang.String
-java.lang.Boolean
+java.lang.String
+java.lang.String
 java.lang.String
 java.lang.Integer
 java.lang.Integer
 java.lang.Long</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectController.deleteProject(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectController.updatePublicStatus(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.lang.String
-java.lang.String</t>
+    <t>com.clsaa.dop.server.image.controller.ImageInfoController.deleteImage(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>java.lang.String
+java.lang.String
+java.lang.String
+java.lang.Long</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.image.controller.ImageInfoController.getImage(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.image.model.vo.ImageInfoVO</t>
   </si>
   <si>
     <t>com.clsaa.dop.server.image.controller.StatisticsController.getStatistics(java.lang.Long)</t>
@@ -621,77 +663,54 @@
 java.lang.Long</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectLogsController.getProjectLogs(java.lang.Integer,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Integer
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.Integer
-java.lang.Integer
+    <t>code-server</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.FileController.findTreeCommits(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>java.lang.String
+java.lang.String
+java.lang.String
+java.lang.String
 java.lang.Long</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.image.controller.ImageInfoController.getImages(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.Long)</t>
+    <t>com.clsaa.dop.server.code.controller.FileController.updateFile(java.lang.String,java.lang.String,com.clsaa.dop.server.code.model.dto.file.FileUpdateDto)</t>
   </si>
   <si>
     <t>java.lang.String
 java.lang.String
-java.lang.String
-java.lang.String
-java.lang.Integer
-java.lang.Integer
+com.clsaa.dop.server.code.model.dto.file.FileUpdateDto</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.FileController.deleteFile(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>java.lang.String
+java.lang.String
+java.lang.String
+java.lang.String
+java.lang.String
 java.lang.Long</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.image.controller.ImageInfoController.deleteImage(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ImageInfoController.getImage(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.model.vo.ImageInfoVO</t>
-  </si>
-  <si>
-    <t>code-server</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.MergeRequestController.createMR(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.MergeRequestController.updateMR(java.lang.String,java.lang.String,int,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-int
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.MergeRequestController.findMRList(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.MergeRequestController.findSingleMR(java.lang.String,java.lang.String,int,java.lang.Long)</t>
+    <t>com.clsaa.dop.server.code.controller.FileController.findTreeNodes(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.FileController.findAllFilePath(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.FileController.findBranchAndTag(java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.FileController.findFileContent(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.model.vo.file.BlobVo</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.ProjectController.deleteProjectMember(java.lang.String,java.lang.String,int,java.lang.Long)</t>
   </si>
   <si>
     <t>java.lang.String
@@ -700,15 +719,6 @@
 java.lang.Long</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.code.model.vo.mergeRequest.MergeRequestVo</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.MergeRequestController.acceptMR(java.lang.String,java.lang.String,int,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.deleteProjectMember(java.lang.String,java.lang.String,int,java.lang.Long)</t>
-  </si>
-  <si>
     <t>com.clsaa.dop.server.code.controller.ProjectController.deleteProject(java.lang.String,java.lang.String,java.lang.Long)</t>
   </si>
   <si>
@@ -722,6 +732,15 @@
   </si>
   <si>
     <t>com.clsaa.dop.server.code.controller.ProjectController.editProjectInfo(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>java.lang.String
+java.lang.String
+java.lang.String
+java.lang.String
+java.lang.String
+java.lang.String
+java.lang.Long</t>
   </si>
   <si>
     <t>com.clsaa.dop.server.code.controller.ProjectController.addProject(com.clsaa.dop.server.code.model.dto.project.ProjectDto)</t>
@@ -789,12 +808,41 @@
     <t>com.clsaa.dop.server.code.controller.TagController.addTag(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
   </si>
   <si>
+    <t>com.clsaa.dop.server.code.controller.MergeRequestController.createMR(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.MergeRequestController.updateMR(java.lang.String,java.lang.String,int,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
     <t>java.lang.String
 java.lang.String
-java.lang.String
-java.lang.String
+int
 java.lang.String
 java.lang.Long</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.MergeRequestController.findMRList(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.MergeRequestController.findSingleMR(java.lang.String,java.lang.String,int,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.model.vo.mergeRequest.MergeRequestVo</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.MergeRequestController.acceptMR(java.lang.String,java.lang.String,int,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.CommitController.findDiff(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.CommitController.findCommitInfo(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.model.vo.commit.CommitInfoVo</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.code.controller.CommitController.findCommitList(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
   </si>
   <si>
     <t>com.clsaa.dop.server.code.controller.UserController.addSSHKey(com.clsaa.dop.server.code.model.dto.user.SSHKeyDto)</t>
@@ -833,13 +881,6 @@
     <t>com.clsaa.dop.server.code.controller.BranchController.addBranch(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
   </si>
   <si>
-    <t>java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
     <t>com.clsaa.dop.server.code.controller.BranchController.findBranchList(java.lang.String,java.lang.String,java.lang.Long)</t>
   </si>
   <si>
@@ -861,57 +902,30 @@
     <t>com.clsaa.dop.server.code.controller.BranchController.deleteMergedBranches(java.lang.String,java.lang.String,java.lang.Long)</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.code.controller.CommitController.findDiff(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.CommitController.findCommitInfo(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.model.vo.commit.CommitInfoVo</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.CommitController.findCommitList(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.findTreeCommits(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.updateFile(java.lang.String,java.lang.String,com.clsaa.dop.server.code.model.dto.file.FileUpdateDto)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-com.clsaa.dop.server.code.model.dto.file.FileUpdateDto</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.deleteFile(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.findTreeNodes(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.findAllFilePath(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.findBranchAndTag(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.findFileContent(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.model.vo.file.BlobVo</t>
-  </si>
-  <si>
     <t>application-server</t>
   </si>
   <si>
+    <t>com.clsaa.dop.server.application.controller.AppVarController.findAppVarByAppId(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.AppVarController.deleteAppVarById(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.AppVarController.updateAppVarById(java.lang.Long,java.lang.Long,com.clsaa.dop.server.application.model.vo.AppVarCreateV1)</t>
+  </si>
+  <si>
+    <t>java.lang.Long
+java.lang.Long
+com.clsaa.dop.server.application.model.vo.AppVarCreateV1</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.AppVarController.findValueByAppIdAndKey(java.lang.Long,java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.AppVarController.createAppVarByAppId(java.lang.Long,java.lang.Long,com.clsaa.dop.server.application.model.vo.AppVarCreateV1)</t>
+  </si>
+  <si>
     <t>com.clsaa.dop.server.application.controller.ImageController.getImageUrlList(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.PipelineController.findPipelineLogByRunningId(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.PipelineResultV1</t>
   </si>
   <si>
     <t>com.clsaa.dop.server.application.controller.KubeYamlController.getServiceByNameSpace(java.lang.Long,java.lang.Long,java.lang.String)</t>
@@ -983,6 +997,56 @@
   </si>
   <si>
     <t>com.clsaa.dop.server.application.model.vo.KubeYamlDataV1</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.AppEnvController.createEnvironmentByAppId(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
+    <t>java.lang.Long
+java.lang.Long
+java.lang.String
+java.lang.String
+java.lang.String</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.AppEnvController.findEnvironmentDetailById(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.model.vo.AppEnvV1</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.AppEnvController.deleteEnvironmentById(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.AppEnvController.findPipelineByAppEnvId(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.model.vo.PipelineIdAndNameV1</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.AppEnvController.findEnvironmentByAppId(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.AppEnvController.findBuildTagByAppEnvIdAndRunningId(java.lang.Long,java.lang.Long,java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.PipelineController.findPipelineLogByRunningId(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.model.vo.PipelineResultV1</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.AppUrlInfoController.updateAppUrlInfoByAppId(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
+    <t>java.lang.Long
+java.lang.Long
+java.lang.String
+java.lang.String
+java.lang.String
+java.lang.String
+java.lang.String
+java.lang.String</t>
   </si>
   <si>
     <t>com.clsaa.dop.server.application.controller.AppEnvLogController.addLog(java.lang.Long,java.lang.Long,com.clsaa.dop.server.application.model.vo.LogInfoV1)</t>
@@ -1000,6 +1064,23 @@
 java.lang.Integer
 java.lang.Integer
 java.lang.Long</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.UserController.findUserByUserId(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.model.vo.UserV1</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.UserController.findUsersNotInProject(java.lang.String,java.lang.Integer,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>java.lang.String
+java.lang.Integer
+java.lang.Integer</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.CodeController.findGitUrls(java.lang.Long)</t>
   </si>
   <si>
     <t>com.clsaa.dop.server.application.controller.ProjectController.getMemberInProject(java.lang.Long,java.lang.Long,java.lang.Long)</t>
@@ -1043,82 +1124,24 @@
     <t>com.clsaa.dop.server.application.controller.ProjectController.deleteMemberFromProject(java.lang.Long,java.lang.Long,java.lang.Long,java.lang.Long)</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.application.controller.AppVarController.findAppVarByAppId(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppVarController.deleteAppVarById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppVarController.updateAppVarById(java.lang.Long,java.lang.Long,com.clsaa.dop.server.application.model.vo.AppVarCreateV1)</t>
+    <t>com.clsaa.dop.server.application.controller.KubeCredentialController.updateUrlAndToken(java.lang.Long,java.lang.Long,com.clsaa.dop.server.application.model.vo.ClusterInfoV1)</t>
   </si>
   <si>
     <t>java.lang.Long
 java.lang.Long
-com.clsaa.dop.server.application.model.vo.AppVarCreateV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppVarController.findValueByAppIdAndKey(java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppVarController.createAppVarByAppId(java.lang.Long,java.lang.Long,com.clsaa.dop.server.application.model.vo.AppVarCreateV1)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvController.createEnvironmentByAppId(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.lang.String
-java.lang.String
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvController.findEnvironmentDetailById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.AppEnvV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvController.deleteEnvironmentById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvController.findPipelineByAppEnvId(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.PipelineIdAndNameV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvController.findEnvironmentByAppId(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvController.findBuildTagByAppEnvIdAndRunningId(java.lang.Long,java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppUrlInfoController.updateAppUrlInfoByAppId(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.UserController.findUserByUserId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.UserV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.UserController.findUsersNotInProject(java.lang.String,java.lang.Integer,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.Integer
-java.lang.Integer</t>
+com.clsaa.dop.server.application.model.vo.ClusterInfoV1</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.KubeCredentialController.getUrlAndTokenByAppEnvId(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.model.vo.KubeCredentialWithTokenV1</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.controller.KubeCredentialController.getUrlByAppEnvId(java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.clsaa.dop.server.application.model.vo.ClusterUrlV1</t>
   </si>
   <si>
     <t>com.clsaa.dop.server.application.controller.AppController.findApplicationByProjectId(java.lang.Long,java.lang.Integer,java.lang.Integer,java.lang.Long,java.lang.String)</t>
@@ -1156,29 +1179,6 @@
   </si>
   <si>
     <t>com.clsaa.dop.server.application.controller.AppController.updateApp(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeCredentialController.updateUrlAndToken(java.lang.Long,java.lang.Long,com.clsaa.dop.server.application.model.vo.ClusterInfoV1)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-com.clsaa.dop.server.application.model.vo.ClusterInfoV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeCredentialController.getUrlAndTokenByAppEnvId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.KubeCredentialWithTokenV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeCredentialController.getUrlByAppEnvId(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.ClusterUrlV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.CodeController.findGitUrls(java.lang.Long)</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1489,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1503,7 +1503,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1514,13 +1514,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1528,13 +1528,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -1542,10 +1542,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -1556,13 +1556,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1570,13 +1570,13 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -1584,13 +1584,13 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1598,13 +1598,13 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -1612,13 +1612,13 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1626,13 +1626,13 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1640,13 +1640,13 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1654,13 +1654,13 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1668,10 +1668,10 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1682,10 +1682,10 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1696,13 +1696,13 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1710,10 +1710,10 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -1724,10 +1724,10 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
@@ -1738,13 +1738,13 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -1752,13 +1752,13 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1766,10 +1766,10 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1780,13 +1780,13 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1794,13 +1794,13 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -1808,7 +1808,7 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1822,13 +1822,13 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
         <v>74</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>75</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1853,7 +1853,7 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
         <v>81</v>
@@ -1870,7 +1870,7 @@
         <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1878,13 +1878,13 @@
         <v>82</v>
       </c>
       <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
         <v>86</v>
       </c>
-      <c r="C47" t="s">
-        <v>87</v>
-      </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -1892,13 +1892,13 @@
         <v>82</v>
       </c>
       <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
         <v>88</v>
       </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -1909,10 +1909,10 @@
         <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
@@ -1920,13 +1920,13 @@
         <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51">
@@ -1934,13 +1934,13 @@
         <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -1948,13 +1948,13 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
         <v>93</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -1962,13 +1962,13 @@
         <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
@@ -1976,10 +1976,10 @@
         <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1990,13 +1990,13 @@
         <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -2004,13 +2004,13 @@
         <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2018,13 +2018,13 @@
         <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -2032,10 +2032,10 @@
         <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -2046,10 +2046,10 @@
         <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -2063,10 +2063,10 @@
         <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -2074,7 +2074,7 @@
         <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -2088,10 +2088,10 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -2102,7 +2102,7 @@
         <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
         <v>22</v>
@@ -2116,13 +2116,13 @@
         <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65">
@@ -2130,10 +2130,10 @@
         <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -2144,13 +2144,13 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
         <v>114</v>
-      </c>
-      <c r="C66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -2161,10 +2161,10 @@
         <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68">
@@ -2203,7 +2203,7 @@
         <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -2231,7 +2231,7 @@
         <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -2245,10 +2245,10 @@
         <v>124</v>
       </c>
       <c r="C73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
         <v>10</v>
-      </c>
-      <c r="D73" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="74">
@@ -2256,10 +2256,10 @@
         <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -2270,13 +2270,13 @@
         <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -2284,13 +2284,13 @@
         <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="D76" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -2298,13 +2298,13 @@
         <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -2312,13 +2312,13 @@
         <v>122</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -2326,13 +2326,13 @@
         <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -2340,13 +2340,13 @@
         <v>122</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -2354,13 +2354,13 @@
         <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82">
@@ -2368,13 +2368,13 @@
         <v>122</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -2382,13 +2382,13 @@
         <v>122</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
         <v>128</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -2396,13 +2396,13 @@
         <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85">
@@ -2410,13 +2410,13 @@
         <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
@@ -2424,13 +2424,13 @@
         <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
@@ -2438,10 +2438,10 @@
         <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -2452,13 +2452,13 @@
         <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
@@ -2466,13 +2466,13 @@
         <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
@@ -2480,10 +2480,10 @@
         <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -2494,7 +2494,7 @@
         <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
         <v>128</v>
@@ -2508,13 +2508,13 @@
         <v>122</v>
       </c>
       <c r="B92" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" t="s">
         <v>148</v>
       </c>
-      <c r="C92" t="s">
-        <v>10</v>
-      </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -2525,7 +2525,7 @@
         <v>150</v>
       </c>
       <c r="C93" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2536,10 +2536,10 @@
         <v>149</v>
       </c>
       <c r="B94" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" t="s">
         <v>152</v>
-      </c>
-      <c r="C94" t="s">
-        <v>153</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -2550,13 +2550,13 @@
         <v>149</v>
       </c>
       <c r="B95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" t="s">
         <v>154</v>
-      </c>
-      <c r="C95" t="s">
-        <v>155</v>
-      </c>
-      <c r="D95" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -2564,13 +2564,13 @@
         <v>149</v>
       </c>
       <c r="B96" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" t="s">
         <v>156</v>
       </c>
-      <c r="C96" t="s">
-        <v>157</v>
-      </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
@@ -2578,10 +2578,10 @@
         <v>149</v>
       </c>
       <c r="B97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C97" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2592,10 +2592,10 @@
         <v>149</v>
       </c>
       <c r="B98" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" t="s">
         <v>159</v>
-      </c>
-      <c r="C98" t="s">
-        <v>160</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2606,13 +2606,13 @@
         <v>149</v>
       </c>
       <c r="B99" t="s">
+        <v>160</v>
+      </c>
+      <c r="C99" t="s">
         <v>161</v>
       </c>
-      <c r="C99" t="s">
-        <v>22</v>
-      </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
@@ -2620,13 +2620,13 @@
         <v>149</v>
       </c>
       <c r="B100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" t="s">
         <v>163</v>
       </c>
-      <c r="C100" t="s">
-        <v>164</v>
-      </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -2634,10 +2634,10 @@
         <v>149</v>
       </c>
       <c r="B101" t="s">
+        <v>164</v>
+      </c>
+      <c r="C101" t="s">
         <v>165</v>
-      </c>
-      <c r="C101" t="s">
-        <v>22</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2654,7 +2654,7 @@
         <v>167</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
@@ -2665,10 +2665,10 @@
         <v>168</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="D103" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -2679,10 +2679,10 @@
         <v>170</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
@@ -2690,13 +2690,13 @@
         <v>149</v>
       </c>
       <c r="B105" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -2704,13 +2704,13 @@
         <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C106" t="s">
         <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107">
@@ -2718,13 +2718,13 @@
         <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108">
@@ -2732,13 +2732,13 @@
         <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C108" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -2746,13 +2746,13 @@
         <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
@@ -2763,10 +2763,10 @@
         <v>180</v>
       </c>
       <c r="C110" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D110" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
@@ -2780,7 +2780,7 @@
         <v>184</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
@@ -2805,10 +2805,10 @@
         <v>187</v>
       </c>
       <c r="C113" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
@@ -2816,13 +2816,13 @@
         <v>182</v>
       </c>
       <c r="B114" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D114" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
@@ -2830,13 +2830,13 @@
         <v>182</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
@@ -2844,13 +2844,13 @@
         <v>182</v>
       </c>
       <c r="B116" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C116" t="s">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
@@ -2858,13 +2858,13 @@
         <v>182</v>
       </c>
       <c r="B117" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" t="s">
+        <v>184</v>
+      </c>
+      <c r="D117" t="s">
         <v>193</v>
-      </c>
-      <c r="C117" t="s">
-        <v>58</v>
-      </c>
-      <c r="D117" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -2875,10 +2875,10 @@
         <v>194</v>
       </c>
       <c r="C118" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="D118" t="s">
-        <v>195</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -2889,10 +2889,10 @@
         <v>196</v>
       </c>
       <c r="C119" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -2903,10 +2903,10 @@
         <v>197</v>
       </c>
       <c r="C120" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
     </row>
     <row r="121">
@@ -2914,13 +2914,13 @@
         <v>182</v>
       </c>
       <c r="B121" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
@@ -2931,10 +2931,10 @@
         <v>200</v>
       </c>
       <c r="C122" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -2942,13 +2942,13 @@
         <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -2956,13 +2956,13 @@
         <v>182</v>
       </c>
       <c r="B124" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C124" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
@@ -2970,13 +2970,13 @@
         <v>182</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C125" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
@@ -2987,10 +2987,10 @@
         <v>206</v>
       </c>
       <c r="C126" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="D126" t="s">
-        <v>207</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -3001,10 +3001,10 @@
         <v>208</v>
       </c>
       <c r="C127" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="D127" t="s">
-        <v>209</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
@@ -3015,10 +3015,10 @@
         <v>210</v>
       </c>
       <c r="C128" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
     </row>
     <row r="129">
@@ -3026,13 +3026,13 @@
         <v>182</v>
       </c>
       <c r="B129" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C129" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130">
@@ -3040,13 +3040,13 @@
         <v>182</v>
       </c>
       <c r="B130" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C130" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D130" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
@@ -3054,13 +3054,13 @@
         <v>182</v>
       </c>
       <c r="B131" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C131" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
@@ -3068,13 +3068,13 @@
         <v>182</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C132" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="133">
@@ -3082,10 +3082,10 @@
         <v>182</v>
       </c>
       <c r="B133" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C133" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -3096,13 +3096,13 @@
         <v>182</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135">
@@ -3113,10 +3113,10 @@
         <v>220</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -3127,7 +3127,7 @@
         <v>221</v>
       </c>
       <c r="C136" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -3138,13 +3138,13 @@
         <v>182</v>
       </c>
       <c r="B137" t="s">
+        <v>222</v>
+      </c>
+      <c r="C137" t="s">
         <v>223</v>
       </c>
-      <c r="C137" t="s">
-        <v>224</v>
-      </c>
       <c r="D137" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -3152,13 +3152,13 @@
         <v>182</v>
       </c>
       <c r="B138" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C138" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139">
@@ -3166,13 +3166,13 @@
         <v>182</v>
       </c>
       <c r="B139" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C139" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
     </row>
     <row r="140">
@@ -3180,13 +3180,13 @@
         <v>182</v>
       </c>
       <c r="B140" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C140" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="D140" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
@@ -3194,13 +3194,13 @@
         <v>182</v>
       </c>
       <c r="B141" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D141" t="s">
-        <v>232</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
@@ -3208,13 +3208,13 @@
         <v>182</v>
       </c>
       <c r="B142" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C142" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143">
@@ -3222,13 +3222,13 @@
         <v>182</v>
       </c>
       <c r="B143" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C143" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144">
@@ -3236,10 +3236,10 @@
         <v>182</v>
       </c>
       <c r="B144" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C144" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
@@ -3250,13 +3250,13 @@
         <v>182</v>
       </c>
       <c r="B145" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C145" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146">
@@ -3264,13 +3264,13 @@
         <v>182</v>
       </c>
       <c r="B146" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C146" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="D146" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
@@ -3278,10 +3278,10 @@
         <v>182</v>
       </c>
       <c r="B147" t="s">
+        <v>237</v>
+      </c>
+      <c r="C147" t="s">
         <v>238</v>
-      </c>
-      <c r="C147" t="s">
-        <v>179</v>
       </c>
       <c r="D147" t="s">
         <v>239</v>
@@ -3295,10 +3295,10 @@
         <v>240</v>
       </c>
       <c r="C148" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D148" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
@@ -3306,13 +3306,13 @@
         <v>182</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C149" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
@@ -3320,13 +3320,13 @@
         <v>182</v>
       </c>
       <c r="B150" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C150" t="s">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151">
@@ -3337,10 +3337,10 @@
         <v>244</v>
       </c>
       <c r="C151" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D151" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152">
@@ -3348,13 +3348,13 @@
         <v>182</v>
       </c>
       <c r="B152" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C152" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="D152" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
@@ -3362,13 +3362,13 @@
         <v>182</v>
       </c>
       <c r="B153" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C153" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D153" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
@@ -3376,13 +3376,13 @@
         <v>182</v>
       </c>
       <c r="B154" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C154" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="D154" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
@@ -3390,13 +3390,13 @@
         <v>182</v>
       </c>
       <c r="B155" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C155" t="s">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="D155" t="s">
-        <v>249</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -3407,7 +3407,7 @@
         <v>251</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D156" t="s">
         <v>26</v>
@@ -3421,10 +3421,10 @@
         <v>252</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D157" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
@@ -3432,13 +3432,13 @@
         <v>250</v>
       </c>
       <c r="B158" t="s">
+        <v>253</v>
+      </c>
+      <c r="C158" t="s">
         <v>254</v>
       </c>
-      <c r="C158" t="s">
-        <v>255</v>
-      </c>
       <c r="D158" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -3446,13 +3446,13 @@
         <v>250</v>
       </c>
       <c r="B159" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C159" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
@@ -3460,13 +3460,13 @@
         <v>250</v>
       </c>
       <c r="B160" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="D160" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
@@ -3474,13 +3474,13 @@
         <v>250</v>
       </c>
       <c r="B161" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C161" t="s">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162">
@@ -3488,13 +3488,13 @@
         <v>250</v>
       </c>
       <c r="B162" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C162" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163">
@@ -3502,13 +3502,13 @@
         <v>250</v>
       </c>
       <c r="B163" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C163" t="s">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164">
@@ -3516,13 +3516,13 @@
         <v>250</v>
       </c>
       <c r="B164" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C164" t="s">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165">
@@ -3530,13 +3530,13 @@
         <v>250</v>
       </c>
       <c r="B165" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C165" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="D165" t="s">
-        <v>266</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
@@ -3544,10 +3544,10 @@
         <v>250</v>
       </c>
       <c r="B166" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C166" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -3558,13 +3558,13 @@
         <v>250</v>
       </c>
       <c r="B167" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="D167" t="s">
-        <v>270</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
@@ -3572,13 +3572,13 @@
         <v>250</v>
       </c>
       <c r="B168" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C168" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
@@ -3586,13 +3586,13 @@
         <v>250</v>
       </c>
       <c r="B169" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C169" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="D169" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170">
@@ -3600,13 +3600,13 @@
         <v>250</v>
       </c>
       <c r="B170" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
@@ -3614,13 +3614,13 @@
         <v>250</v>
       </c>
       <c r="B171" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C171" t="s">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="D171" t="s">
-        <v>7</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172">
@@ -3628,10 +3628,10 @@
         <v>250</v>
       </c>
       <c r="B172" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C172" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -3642,13 +3642,13 @@
         <v>250</v>
       </c>
       <c r="B173" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C173" t="s">
-        <v>281</v>
+        <v>22</v>
       </c>
       <c r="D173" t="s">
-        <v>19</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174">
@@ -3656,13 +3656,13 @@
         <v>250</v>
       </c>
       <c r="B174" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C174" t="s">
         <v>22</v>
       </c>
       <c r="D174" t="s">
-        <v>283</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
@@ -3670,13 +3670,13 @@
         <v>250</v>
       </c>
       <c r="B175" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>281</v>
       </c>
     </row>
     <row r="176">
@@ -3684,7 +3684,7 @@
         <v>250</v>
       </c>
       <c r="B176" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C176" t="s">
         <v>22</v>
@@ -3698,13 +3698,13 @@
         <v>250</v>
       </c>
       <c r="B177" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
@@ -3712,13 +3712,13 @@
         <v>250</v>
       </c>
       <c r="B178" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C178" t="s">
-        <v>288</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
     </row>
     <row r="179">
@@ -3726,13 +3726,13 @@
         <v>250</v>
       </c>
       <c r="B179" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C179" t="s">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -3740,10 +3740,10 @@
         <v>250</v>
       </c>
       <c r="B180" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C180" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -3754,13 +3754,13 @@
         <v>250</v>
       </c>
       <c r="B181" t="s">
+        <v>290</v>
+      </c>
+      <c r="C181" t="s">
         <v>291</v>
       </c>
-      <c r="C181" t="s">
-        <v>292</v>
-      </c>
       <c r="D181" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182">
@@ -3768,13 +3768,13 @@
         <v>250</v>
       </c>
       <c r="B182" t="s">
+        <v>292</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
         <v>293</v>
-      </c>
-      <c r="C182" t="s">
-        <v>22</v>
-      </c>
-      <c r="D182" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="183">
@@ -3782,13 +3782,13 @@
         <v>250</v>
       </c>
       <c r="B183" t="s">
+        <v>294</v>
+      </c>
+      <c r="C183" t="s">
         <v>295</v>
       </c>
-      <c r="C183" t="s">
-        <v>22</v>
-      </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184">
@@ -3799,10 +3799,10 @@
         <v>296</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D184" t="s">
-        <v>297</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185">
@@ -3810,10 +3810,10 @@
         <v>250</v>
       </c>
       <c r="B185" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D185" t="s">
         <v>26</v>
@@ -3824,13 +3824,13 @@
         <v>250</v>
       </c>
       <c r="B186" t="s">
+        <v>298</v>
+      </c>
+      <c r="C186" t="s">
         <v>299</v>
       </c>
-      <c r="C186" t="s">
-        <v>255</v>
-      </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
@@ -3855,10 +3855,10 @@
         <v>302</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>303</v>
       </c>
       <c r="D188" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189">
@@ -3869,10 +3869,10 @@
         <v>304</v>
       </c>
       <c r="C189" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" t="s">
         <v>305</v>
-      </c>
-      <c r="D189" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="190">
@@ -3883,10 +3883,10 @@
         <v>306</v>
       </c>
       <c r="C190" t="s">
-        <v>307</v>
+        <v>59</v>
       </c>
       <c r="D190" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
@@ -3894,10 +3894,10 @@
         <v>250</v>
       </c>
       <c r="B191" t="s">
+        <v>307</v>
+      </c>
+      <c r="C191" t="s">
         <v>308</v>
-      </c>
-      <c r="C191" t="s">
-        <v>22</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
@@ -3914,7 +3914,7 @@
         <v>6</v>
       </c>
       <c r="D192" t="s">
-        <v>26</v>
+        <v>310</v>
       </c>
     </row>
     <row r="193">
@@ -3922,13 +3922,13 @@
         <v>250</v>
       </c>
       <c r="B193" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C193" t="s">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>312</v>
       </c>
     </row>
     <row r="194">
@@ -3936,13 +3936,13 @@
         <v>250</v>
       </c>
       <c r="B194" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C194" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="D194" t="s">
-        <v>313</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195">
@@ -3950,10 +3950,10 @@
         <v>250</v>
       </c>
       <c r="B195" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C195" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
@@ -3964,13 +3964,13 @@
         <v>250</v>
       </c>
       <c r="B196" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C196" t="s">
-        <v>316</v>
+        <v>6</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="197">
@@ -3981,10 +3981,10 @@
         <v>317</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="D197" t="s">
-        <v>318</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
@@ -4009,10 +4009,10 @@
         <v>321</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
